--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -425,6 +425,74 @@
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -3771,130 +3839,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104372433000</v>
+        <v>252898814000</v>
       </c>
       <c r="C2" s="42" t="n">
-        <v>1210236000</v>
+        <v>0</v>
       </c>
       <c r="D2" s="43" t="n">
-        <v>27927271.19831815</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102308728.8016818</v>
+        <v>241978000</v>
       </c>
       <c r="F2" t="n">
-        <v>2744982000</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1074938000</v>
+        <v>3868087000</v>
       </c>
       <c r="H2" t="n">
-        <v>84441000</v>
+        <v>1990368000</v>
       </c>
       <c r="I2" t="n">
-        <v>471541000</v>
+        <v>1136071000</v>
       </c>
       <c r="J2" t="n">
-        <v>832736000</v>
+        <v>2053563000</v>
       </c>
       <c r="K2" t="n">
-        <v>2381273000</v>
+        <v>71248000</v>
       </c>
       <c r="L2" s="42" t="n">
-        <v>4014453243.099613</v>
+        <v>2733358457.275101</v>
       </c>
       <c r="M2" s="43" t="n">
-        <v>80123756.90038726</v>
+        <v>2250256542.724899</v>
       </c>
       <c r="N2" t="n">
-        <v>281162000</v>
+        <v>2425546000</v>
       </c>
       <c r="O2" s="42" t="n">
-        <v>103088199.0950226</v>
+        <v>403789741.8068734</v>
       </c>
       <c r="P2" s="43" t="n">
-        <v>292947800.9049774</v>
+        <v>772773258.1931266</v>
       </c>
       <c r="Q2" s="42" t="n">
-        <v>202029364.1322878</v>
+        <v>151814805.7119871</v>
       </c>
       <c r="R2" s="43" t="n">
-        <v>196995635.8677122</v>
+        <v>543234194.2880129</v>
       </c>
       <c r="S2" t="n">
-        <v>1360424000</v>
+        <v>2534895000</v>
       </c>
       <c r="T2" t="n">
-        <v>249244000</v>
+        <v>4967547000</v>
       </c>
       <c r="U2" t="n">
-        <v>118419000</v>
+        <v>2155163000</v>
       </c>
       <c r="V2" t="n">
-        <v>1138044000</v>
+        <v>3049805000</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2026696000</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>997838000</v>
       </c>
       <c r="Y2" t="n">
-        <v>289480000</v>
+        <v>1133508000</v>
       </c>
       <c r="Z2" s="42" t="n">
-        <v>940521891.8343825</v>
+        <v>1807058090.612715</v>
       </c>
       <c r="AA2" s="45" t="n">
-        <v>74362547.74359429</v>
+        <v>124555154.5689903</v>
       </c>
       <c r="AB2" s="43" t="n">
-        <v>143589560.4220232</v>
+        <v>71448754.81829514</v>
       </c>
       <c r="AC2" t="n">
-        <v>11217671000</v>
+        <v>16161544000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13795789000</v>
+        <v>35658591000</v>
       </c>
       <c r="AE2" t="n">
-        <v>6095746000</v>
+        <v>9356887000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5404281000</v>
+        <v>10892179000</v>
       </c>
       <c r="AG2" t="n">
-        <v>588703000</v>
+        <v>3344873000</v>
       </c>
       <c r="AH2" t="n">
-        <v>894241000</v>
+        <v>3184582000</v>
       </c>
       <c r="AI2" t="n">
-        <v>243681000</v>
+        <v>1552199000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5234044000</v>
+        <v>23794121000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1894515000</v>
+        <v>3928066000</v>
       </c>
       <c r="AL2" t="n">
-        <v>19244893000</v>
+        <v>61473992000</v>
       </c>
       <c r="AM2" t="n">
-        <v>25241781000</v>
+        <v>64305356000</v>
       </c>
       <c r="AN2" t="n">
-        <v>2204024000</v>
+        <v>6072660000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15540447000</v>
+        <v>32233666000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1454556000</v>
+        <v>3077767000</v>
       </c>
       <c r="AQ2" t="n">
-        <v>306550000</v>
+        <v>418967000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3839,130 +3839,130 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252898814000</v>
+        <v>104372433000</v>
       </c>
       <c r="C2" s="42" t="n">
+        <v>1210236000</v>
+      </c>
+      <c r="D2" s="43" t="n">
+        <v>27927271.19831815</v>
+      </c>
+      <c r="E2" t="n">
+        <v>102308728.8016818</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2744982000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1074938000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>84441000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>471541000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>832736000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2381273000</v>
+      </c>
+      <c r="L2" s="42" t="n">
+        <v>4014453243.099613</v>
+      </c>
+      <c r="M2" s="43" t="n">
+        <v>80123756.90038726</v>
+      </c>
+      <c r="N2" t="n">
+        <v>281162000</v>
+      </c>
+      <c r="O2" s="42" t="n">
+        <v>103088199.0950226</v>
+      </c>
+      <c r="P2" s="43" t="n">
+        <v>292947800.9049774</v>
+      </c>
+      <c r="Q2" s="42" t="n">
+        <v>202029364.1322878</v>
+      </c>
+      <c r="R2" s="43" t="n">
+        <v>196995635.8677122</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1360424000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>249244000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>118419000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1138044000</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="X2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>241978000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3868087000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1990368000</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1136071000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2053563000</v>
-      </c>
-      <c r="K2" t="n">
-        <v>71248000</v>
-      </c>
-      <c r="L2" s="42" t="n">
-        <v>2733358457.275101</v>
-      </c>
-      <c r="M2" s="43" t="n">
-        <v>2250256542.724899</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2425546000</v>
-      </c>
-      <c r="O2" s="42" t="n">
-        <v>403789741.8068734</v>
-      </c>
-      <c r="P2" s="43" t="n">
-        <v>772773258.1931266</v>
-      </c>
-      <c r="Q2" s="42" t="n">
-        <v>151814805.7119871</v>
-      </c>
-      <c r="R2" s="43" t="n">
-        <v>543234194.2880129</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2534895000</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4967547000</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2155163000</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3049805000</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2026696000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>997838000</v>
-      </c>
       <c r="Y2" t="n">
-        <v>1133508000</v>
+        <v>289480000</v>
       </c>
       <c r="Z2" s="42" t="n">
-        <v>1807058090.612715</v>
+        <v>940521891.8343825</v>
       </c>
       <c r="AA2" s="45" t="n">
-        <v>124555154.5689903</v>
+        <v>74362547.74359429</v>
       </c>
       <c r="AB2" s="43" t="n">
-        <v>71448754.81829514</v>
+        <v>143589560.4220232</v>
       </c>
       <c r="AC2" t="n">
-        <v>16161544000</v>
+        <v>11217671000</v>
       </c>
       <c r="AD2" t="n">
-        <v>35658591000</v>
+        <v>13795789000</v>
       </c>
       <c r="AE2" t="n">
-        <v>9356887000</v>
+        <v>6095746000</v>
       </c>
       <c r="AF2" t="n">
-        <v>10892179000</v>
+        <v>5404281000</v>
       </c>
       <c r="AG2" t="n">
-        <v>3344873000</v>
+        <v>588703000</v>
       </c>
       <c r="AH2" t="n">
-        <v>3184582000</v>
+        <v>894241000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1552199000</v>
+        <v>243681000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23794121000</v>
+        <v>5234044000</v>
       </c>
       <c r="AK2" t="n">
-        <v>3928066000</v>
+        <v>1894515000</v>
       </c>
       <c r="AL2" t="n">
-        <v>61473992000</v>
+        <v>19244893000</v>
       </c>
       <c r="AM2" t="n">
-        <v>64305356000</v>
+        <v>25241781000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6072660000</v>
+        <v>2204024000</v>
       </c>
       <c r="AO2" t="n">
-        <v>32233666000</v>
+        <v>15540447000</v>
       </c>
       <c r="AP2" t="n">
-        <v>3077767000</v>
+        <v>1454556000</v>
       </c>
       <c r="AQ2" t="n">
-        <v>418967000</v>
+        <v>306550000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3839,7 +3839,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104372433000</v>
+        <v>921443000</v>
       </c>
       <c r="C2" s="42" t="n">
         <v>1210236000</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32440" yWindow="6020" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,9 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BECbIC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-  </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -305,7 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -380,6 +377,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -406,18 +415,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,174 +732,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="OECD EMPN"/>
-      <sheetName val="Filtered OECD Data"/>
-      <sheetName val="U.S. Data for ISIC Splits"/>
-      <sheetName val="BEbIC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="38">
-          <cell r="B38">
-            <v>2253</v>
-          </cell>
-          <cell r="C38">
-            <v>262.60000000000002</v>
-          </cell>
-          <cell r="D38">
-            <v>135.4</v>
-          </cell>
-          <cell r="E38">
-            <v>373</v>
-          </cell>
-          <cell r="F38">
-            <v>1783</v>
-          </cell>
-          <cell r="G38">
-            <v>442</v>
-          </cell>
-          <cell r="H38">
-            <v>399</v>
-          </cell>
-          <cell r="I38">
-            <v>842</v>
-          </cell>
-          <cell r="J38">
-            <v>111</v>
-          </cell>
-          <cell r="K38">
-            <v>820</v>
-          </cell>
-          <cell r="L38">
-            <v>690</v>
-          </cell>
-          <cell r="M38">
-            <v>412</v>
-          </cell>
-          <cell r="N38">
-            <v>395</v>
-          </cell>
-          <cell r="O38">
-            <v>1483</v>
-          </cell>
-          <cell r="P38">
-            <v>1058</v>
-          </cell>
-          <cell r="Q38">
-            <v>382</v>
-          </cell>
-          <cell r="R38">
-            <v>1126</v>
-          </cell>
-          <cell r="S38">
-            <v>922</v>
-          </cell>
-          <cell r="T38">
-            <v>695</v>
-          </cell>
-          <cell r="U38">
-            <v>1355.5</v>
-          </cell>
-          <cell r="V38">
-            <v>975</v>
-          </cell>
-          <cell r="W38">
-            <v>8240</v>
-          </cell>
-          <cell r="X38">
-            <v>23893.3</v>
-          </cell>
-          <cell r="Y38">
-            <v>5988</v>
-          </cell>
-          <cell r="Z38">
-            <v>13295</v>
-          </cell>
-          <cell r="AA38">
-            <v>1686.9</v>
-          </cell>
-          <cell r="AB38">
-            <v>823.1</v>
-          </cell>
-          <cell r="AC38">
-            <v>2455</v>
-          </cell>
-          <cell r="AD38">
-            <v>6300</v>
-          </cell>
-          <cell r="AE38">
-            <v>1958</v>
-          </cell>
-          <cell r="AF38">
-            <v>19863</v>
-          </cell>
-          <cell r="AG38">
-            <v>13365</v>
-          </cell>
-          <cell r="AH38">
-            <v>14114</v>
-          </cell>
-          <cell r="AI38">
-            <v>19522</v>
-          </cell>
-          <cell r="AJ38">
-            <v>8780.2000000000007</v>
-          </cell>
-          <cell r="AK38">
-            <v>329.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6">
-            <v>64800</v>
-          </cell>
-          <cell r="E6">
-            <v>185400</v>
-          </cell>
-          <cell r="G6">
-            <v>531100</v>
-          </cell>
-          <cell r="H6">
-            <v>284200</v>
-          </cell>
-          <cell r="J6">
-            <v>93600</v>
-          </cell>
-          <cell r="K6">
-            <v>310900</v>
-          </cell>
-          <cell r="M6">
-            <v>209500</v>
-          </cell>
-          <cell r="N6">
-            <v>182400</v>
-          </cell>
-          <cell r="P6">
-            <v>397500</v>
-          </cell>
-          <cell r="Q6">
-            <v>119700</v>
-          </cell>
-          <cell r="R6">
-            <v>50300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
@@ -1187,6 +1017,9 @@
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
+      </c>
+      <c r="C1" s="46" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1366,8 +1199,8 @@
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
     <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="41"/>
-    <col width="9.1640625" customWidth="1" style="6" min="42" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1389,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="B3" s="37" t="n"/>
+      <c r="C3" s="41" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="33" t="n"/>
-      <c r="O3" s="33" t="n"/>
-      <c r="P3" s="33" t="n"/>
-      <c r="Q3" s="33" t="n"/>
-      <c r="R3" s="33" t="n"/>
-      <c r="S3" s="33" t="n"/>
-      <c r="T3" s="33" t="n"/>
-      <c r="U3" s="33" t="n"/>
-      <c r="V3" s="33" t="n"/>
-      <c r="W3" s="33" t="n"/>
-      <c r="X3" s="33" t="n"/>
-      <c r="Y3" s="33" t="n"/>
-      <c r="Z3" s="33" t="n"/>
-      <c r="AA3" s="33" t="n"/>
-      <c r="AB3" s="33" t="n"/>
-      <c r="AC3" s="33" t="n"/>
-      <c r="AD3" s="33" t="n"/>
-      <c r="AE3" s="33" t="n"/>
-      <c r="AF3" s="33" t="n"/>
-      <c r="AG3" s="33" t="n"/>
-      <c r="AH3" s="33" t="n"/>
-      <c r="AI3" s="33" t="n"/>
-      <c r="AJ3" s="33" t="n"/>
-      <c r="AK3" s="33" t="n"/>
-      <c r="AL3" s="31" t="n"/>
+      <c r="D3" s="39" t="n"/>
+      <c r="E3" s="39" t="n"/>
+      <c r="F3" s="39" t="n"/>
+      <c r="G3" s="39" t="n"/>
+      <c r="H3" s="39" t="n"/>
+      <c r="I3" s="39" t="n"/>
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="39" t="n"/>
+      <c r="L3" s="39" t="n"/>
+      <c r="M3" s="39" t="n"/>
+      <c r="N3" s="39" t="n"/>
+      <c r="O3" s="39" t="n"/>
+      <c r="P3" s="39" t="n"/>
+      <c r="Q3" s="39" t="n"/>
+      <c r="R3" s="39" t="n"/>
+      <c r="S3" s="39" t="n"/>
+      <c r="T3" s="39" t="n"/>
+      <c r="U3" s="39" t="n"/>
+      <c r="V3" s="39" t="n"/>
+      <c r="W3" s="39" t="n"/>
+      <c r="X3" s="39" t="n"/>
+      <c r="Y3" s="39" t="n"/>
+      <c r="Z3" s="39" t="n"/>
+      <c r="AA3" s="39" t="n"/>
+      <c r="AB3" s="39" t="n"/>
+      <c r="AC3" s="39" t="n"/>
+      <c r="AD3" s="39" t="n"/>
+      <c r="AE3" s="39" t="n"/>
+      <c r="AF3" s="39" t="n"/>
+      <c r="AG3" s="39" t="n"/>
+      <c r="AH3" s="39" t="n"/>
+      <c r="AI3" s="39" t="n"/>
+      <c r="AJ3" s="39" t="n"/>
+      <c r="AK3" s="39" t="n"/>
+      <c r="AL3" s="37" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="36" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="38" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="33" t="n"/>
-      <c r="N4" s="33" t="n"/>
-      <c r="O4" s="33" t="n"/>
-      <c r="P4" s="33" t="n"/>
-      <c r="Q4" s="33" t="n"/>
-      <c r="R4" s="33" t="n"/>
-      <c r="S4" s="33" t="n"/>
-      <c r="T4" s="33" t="n"/>
-      <c r="U4" s="33" t="n"/>
-      <c r="V4" s="33" t="n"/>
-      <c r="W4" s="33" t="n"/>
-      <c r="X4" s="33" t="n"/>
-      <c r="Y4" s="33" t="n"/>
-      <c r="Z4" s="33" t="n"/>
-      <c r="AA4" s="33" t="n"/>
-      <c r="AB4" s="33" t="n"/>
-      <c r="AC4" s="33" t="n"/>
-      <c r="AD4" s="33" t="n"/>
-      <c r="AE4" s="33" t="n"/>
-      <c r="AF4" s="33" t="n"/>
-      <c r="AG4" s="33" t="n"/>
-      <c r="AH4" s="33" t="n"/>
-      <c r="AI4" s="33" t="n"/>
-      <c r="AJ4" s="33" t="n"/>
-      <c r="AK4" s="33" t="n"/>
-      <c r="AL4" s="31" t="n"/>
+      <c r="D4" s="39" t="n"/>
+      <c r="E4" s="39" t="n"/>
+      <c r="F4" s="39" t="n"/>
+      <c r="G4" s="39" t="n"/>
+      <c r="H4" s="39" t="n"/>
+      <c r="I4" s="39" t="n"/>
+      <c r="J4" s="39" t="n"/>
+      <c r="K4" s="39" t="n"/>
+      <c r="L4" s="39" t="n"/>
+      <c r="M4" s="39" t="n"/>
+      <c r="N4" s="39" t="n"/>
+      <c r="O4" s="39" t="n"/>
+      <c r="P4" s="39" t="n"/>
+      <c r="Q4" s="39" t="n"/>
+      <c r="R4" s="39" t="n"/>
+      <c r="S4" s="39" t="n"/>
+      <c r="T4" s="39" t="n"/>
+      <c r="U4" s="39" t="n"/>
+      <c r="V4" s="39" t="n"/>
+      <c r="W4" s="39" t="n"/>
+      <c r="X4" s="39" t="n"/>
+      <c r="Y4" s="39" t="n"/>
+      <c r="Z4" s="39" t="n"/>
+      <c r="AA4" s="39" t="n"/>
+      <c r="AB4" s="39" t="n"/>
+      <c r="AC4" s="39" t="n"/>
+      <c r="AD4" s="39" t="n"/>
+      <c r="AE4" s="39" t="n"/>
+      <c r="AF4" s="39" t="n"/>
+      <c r="AG4" s="39" t="n"/>
+      <c r="AH4" s="39" t="n"/>
+      <c r="AI4" s="39" t="n"/>
+      <c r="AJ4" s="39" t="n"/>
+      <c r="AK4" s="39" t="n"/>
+      <c r="AL4" s="37" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="B5" s="37" t="n"/>
+      <c r="C5" s="38" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="33" t="n"/>
-      <c r="N5" s="33" t="n"/>
-      <c r="O5" s="33" t="n"/>
-      <c r="P5" s="33" t="n"/>
-      <c r="Q5" s="33" t="n"/>
-      <c r="R5" s="33" t="n"/>
-      <c r="S5" s="33" t="n"/>
-      <c r="T5" s="33" t="n"/>
-      <c r="U5" s="33" t="n"/>
-      <c r="V5" s="33" t="n"/>
-      <c r="W5" s="33" t="n"/>
-      <c r="X5" s="33" t="n"/>
-      <c r="Y5" s="33" t="n"/>
-      <c r="Z5" s="33" t="n"/>
-      <c r="AA5" s="33" t="n"/>
-      <c r="AB5" s="33" t="n"/>
-      <c r="AC5" s="33" t="n"/>
-      <c r="AD5" s="33" t="n"/>
-      <c r="AE5" s="33" t="n"/>
-      <c r="AF5" s="33" t="n"/>
-      <c r="AG5" s="33" t="n"/>
-      <c r="AH5" s="33" t="n"/>
-      <c r="AI5" s="33" t="n"/>
-      <c r="AJ5" s="33" t="n"/>
-      <c r="AK5" s="33" t="n"/>
-      <c r="AL5" s="31" t="n"/>
+      <c r="D5" s="39" t="n"/>
+      <c r="E5" s="39" t="n"/>
+      <c r="F5" s="39" t="n"/>
+      <c r="G5" s="39" t="n"/>
+      <c r="H5" s="39" t="n"/>
+      <c r="I5" s="39" t="n"/>
+      <c r="J5" s="39" t="n"/>
+      <c r="K5" s="39" t="n"/>
+      <c r="L5" s="39" t="n"/>
+      <c r="M5" s="39" t="n"/>
+      <c r="N5" s="39" t="n"/>
+      <c r="O5" s="39" t="n"/>
+      <c r="P5" s="39" t="n"/>
+      <c r="Q5" s="39" t="n"/>
+      <c r="R5" s="39" t="n"/>
+      <c r="S5" s="39" t="n"/>
+      <c r="T5" s="39" t="n"/>
+      <c r="U5" s="39" t="n"/>
+      <c r="V5" s="39" t="n"/>
+      <c r="W5" s="39" t="n"/>
+      <c r="X5" s="39" t="n"/>
+      <c r="Y5" s="39" t="n"/>
+      <c r="Z5" s="39" t="n"/>
+      <c r="AA5" s="39" t="n"/>
+      <c r="AB5" s="39" t="n"/>
+      <c r="AC5" s="39" t="n"/>
+      <c r="AD5" s="39" t="n"/>
+      <c r="AE5" s="39" t="n"/>
+      <c r="AF5" s="39" t="n"/>
+      <c r="AG5" s="39" t="n"/>
+      <c r="AH5" s="39" t="n"/>
+      <c r="AI5" s="39" t="n"/>
+      <c r="AJ5" s="39" t="n"/>
+      <c r="AK5" s="39" t="n"/>
+      <c r="AL5" s="37" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="36" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="B6" s="37" t="n"/>
+      <c r="C6" s="38" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="33" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="33" t="n"/>
-      <c r="M6" s="33" t="n"/>
-      <c r="N6" s="33" t="n"/>
-      <c r="O6" s="33" t="n"/>
-      <c r="P6" s="33" t="n"/>
-      <c r="Q6" s="33" t="n"/>
-      <c r="R6" s="33" t="n"/>
-      <c r="S6" s="33" t="n"/>
-      <c r="T6" s="33" t="n"/>
-      <c r="U6" s="33" t="n"/>
-      <c r="V6" s="33" t="n"/>
-      <c r="W6" s="33" t="n"/>
-      <c r="X6" s="33" t="n"/>
-      <c r="Y6" s="33" t="n"/>
-      <c r="Z6" s="33" t="n"/>
-      <c r="AA6" s="33" t="n"/>
-      <c r="AB6" s="33" t="n"/>
-      <c r="AC6" s="33" t="n"/>
-      <c r="AD6" s="33" t="n"/>
-      <c r="AE6" s="33" t="n"/>
-      <c r="AF6" s="33" t="n"/>
-      <c r="AG6" s="33" t="n"/>
-      <c r="AH6" s="33" t="n"/>
-      <c r="AI6" s="33" t="n"/>
-      <c r="AJ6" s="33" t="n"/>
-      <c r="AK6" s="33" t="n"/>
-      <c r="AL6" s="31" t="n"/>
+      <c r="D6" s="39" t="n"/>
+      <c r="E6" s="39" t="n"/>
+      <c r="F6" s="39" t="n"/>
+      <c r="G6" s="39" t="n"/>
+      <c r="H6" s="39" t="n"/>
+      <c r="I6" s="39" t="n"/>
+      <c r="J6" s="39" t="n"/>
+      <c r="K6" s="39" t="n"/>
+      <c r="L6" s="39" t="n"/>
+      <c r="M6" s="39" t="n"/>
+      <c r="N6" s="39" t="n"/>
+      <c r="O6" s="39" t="n"/>
+      <c r="P6" s="39" t="n"/>
+      <c r="Q6" s="39" t="n"/>
+      <c r="R6" s="39" t="n"/>
+      <c r="S6" s="39" t="n"/>
+      <c r="T6" s="39" t="n"/>
+      <c r="U6" s="39" t="n"/>
+      <c r="V6" s="39" t="n"/>
+      <c r="W6" s="39" t="n"/>
+      <c r="X6" s="39" t="n"/>
+      <c r="Y6" s="39" t="n"/>
+      <c r="Z6" s="39" t="n"/>
+      <c r="AA6" s="39" t="n"/>
+      <c r="AB6" s="39" t="n"/>
+      <c r="AC6" s="39" t="n"/>
+      <c r="AD6" s="39" t="n"/>
+      <c r="AE6" s="39" t="n"/>
+      <c r="AF6" s="39" t="n"/>
+      <c r="AG6" s="39" t="n"/>
+      <c r="AH6" s="39" t="n"/>
+      <c r="AI6" s="39" t="n"/>
+      <c r="AJ6" s="39" t="n"/>
+      <c r="AK6" s="39" t="n"/>
+      <c r="AL6" s="37" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="40" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n"/>
+      <c r="B7" s="37" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2227,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="n"/>
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="31" t="n"/>
+      <c r="D3" s="39" t="n"/>
+      <c r="E3" s="39" t="n"/>
+      <c r="F3" s="39" t="n"/>
+      <c r="G3" s="39" t="n"/>
+      <c r="H3" s="39" t="n"/>
+      <c r="I3" s="39" t="n"/>
+      <c r="J3" s="39" t="n"/>
+      <c r="K3" s="39" t="n"/>
+      <c r="L3" s="39" t="n"/>
+      <c r="M3" s="39" t="n"/>
+      <c r="N3" s="37" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="42" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="39" t="inlineStr">
+      <c r="B4" s="37" t="n"/>
+      <c r="C4" s="45" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="39" t="inlineStr">
+      <c r="D4" s="37" t="n"/>
+      <c r="E4" s="45" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="39" t="inlineStr">
+      <c r="F4" s="37" t="n"/>
+      <c r="G4" s="45" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="31" t="n"/>
-      <c r="I4" s="39" t="inlineStr">
+      <c r="H4" s="37" t="n"/>
+      <c r="I4" s="45" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="31" t="n"/>
-      <c r="K4" s="39" t="inlineStr">
+      <c r="J4" s="37" t="n"/>
+      <c r="K4" s="45" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="39" t="inlineStr">
+      <c r="L4" s="37" t="n"/>
+      <c r="M4" s="45" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="31" t="n"/>
+      <c r="N4" s="37" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="42" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="37" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3626,12 +3459,12 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="31" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
@@ -3671,12 +3504,12 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="40" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="41" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
@@ -3686,22 +3519,22 @@
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="40" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="41" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="41" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
@@ -3741,17 +3574,17 @@
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="40" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="44" t="inlineStr">
+      <c r="AA1" s="34" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="41" t="inlineStr">
+      <c r="AB1" s="31" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
@@ -3841,10 +3674,10 @@
       <c r="B2" t="n">
         <v>921443000</v>
       </c>
-      <c r="C2" s="42" t="n">
+      <c r="C2" s="32" t="n">
         <v>1210236000</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="D2" s="33" t="n">
         <v>27927271.19831815</v>
       </c>
       <c r="E2" t="n">
@@ -3868,25 +3701,25 @@
       <c r="K2" t="n">
         <v>2381273000</v>
       </c>
-      <c r="L2" s="42" t="n">
+      <c r="L2" s="32" t="n">
         <v>4014453243.099613</v>
       </c>
-      <c r="M2" s="43" t="n">
+      <c r="M2" s="33" t="n">
         <v>80123756.90038726</v>
       </c>
       <c r="N2" t="n">
         <v>281162000</v>
       </c>
-      <c r="O2" s="42" t="n">
+      <c r="O2" s="32" t="n">
         <v>103088199.0950226</v>
       </c>
-      <c r="P2" s="43" t="n">
+      <c r="P2" s="33" t="n">
         <v>292947800.9049774</v>
       </c>
-      <c r="Q2" s="42" t="n">
+      <c r="Q2" s="32" t="n">
         <v>202029364.1322878</v>
       </c>
-      <c r="R2" s="43" t="n">
+      <c r="R2" s="33" t="n">
         <v>196995635.8677122</v>
       </c>
       <c r="S2" t="n">
@@ -3910,13 +3743,13 @@
       <c r="Y2" t="n">
         <v>289480000</v>
       </c>
-      <c r="Z2" s="42" t="n">
+      <c r="Z2" s="32" t="n">
         <v>940521891.8343825</v>
       </c>
-      <c r="AA2" s="45" t="n">
+      <c r="AA2" s="35" t="n">
         <v>74362547.74359429</v>
       </c>
-      <c r="AB2" s="43" t="n">
+      <c r="AB2" s="33" t="n">
         <v>143589560.4220232</v>
       </c>
       <c r="AC2" t="n">

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -389,6 +389,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -415,7 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,7 +1007,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1018,7 +1018,7 @@
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
       </c>
-      <c r="C1" s="46" t="n">
+      <c r="C1" s="36" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="42"/>
-    <col width="9.1640625" customWidth="1" style="6" min="43" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1222,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="41" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="39" t="n"/>
-      <c r="O3" s="39" t="n"/>
-      <c r="P3" s="39" t="n"/>
-      <c r="Q3" s="39" t="n"/>
-      <c r="R3" s="39" t="n"/>
-      <c r="S3" s="39" t="n"/>
-      <c r="T3" s="39" t="n"/>
-      <c r="U3" s="39" t="n"/>
-      <c r="V3" s="39" t="n"/>
-      <c r="W3" s="39" t="n"/>
-      <c r="X3" s="39" t="n"/>
-      <c r="Y3" s="39" t="n"/>
-      <c r="Z3" s="39" t="n"/>
-      <c r="AA3" s="39" t="n"/>
-      <c r="AB3" s="39" t="n"/>
-      <c r="AC3" s="39" t="n"/>
-      <c r="AD3" s="39" t="n"/>
-      <c r="AE3" s="39" t="n"/>
-      <c r="AF3" s="39" t="n"/>
-      <c r="AG3" s="39" t="n"/>
-      <c r="AH3" s="39" t="n"/>
-      <c r="AI3" s="39" t="n"/>
-      <c r="AJ3" s="39" t="n"/>
-      <c r="AK3" s="39" t="n"/>
-      <c r="AL3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="38" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="39" t="n"/>
-      <c r="E4" s="39" t="n"/>
-      <c r="F4" s="39" t="n"/>
-      <c r="G4" s="39" t="n"/>
-      <c r="H4" s="39" t="n"/>
-      <c r="I4" s="39" t="n"/>
-      <c r="J4" s="39" t="n"/>
-      <c r="K4" s="39" t="n"/>
-      <c r="L4" s="39" t="n"/>
-      <c r="M4" s="39" t="n"/>
-      <c r="N4" s="39" t="n"/>
-      <c r="O4" s="39" t="n"/>
-      <c r="P4" s="39" t="n"/>
-      <c r="Q4" s="39" t="n"/>
-      <c r="R4" s="39" t="n"/>
-      <c r="S4" s="39" t="n"/>
-      <c r="T4" s="39" t="n"/>
-      <c r="U4" s="39" t="n"/>
-      <c r="V4" s="39" t="n"/>
-      <c r="W4" s="39" t="n"/>
-      <c r="X4" s="39" t="n"/>
-      <c r="Y4" s="39" t="n"/>
-      <c r="Z4" s="39" t="n"/>
-      <c r="AA4" s="39" t="n"/>
-      <c r="AB4" s="39" t="n"/>
-      <c r="AC4" s="39" t="n"/>
-      <c r="AD4" s="39" t="n"/>
-      <c r="AE4" s="39" t="n"/>
-      <c r="AF4" s="39" t="n"/>
-      <c r="AG4" s="39" t="n"/>
-      <c r="AH4" s="39" t="n"/>
-      <c r="AI4" s="39" t="n"/>
-      <c r="AJ4" s="39" t="n"/>
-      <c r="AK4" s="39" t="n"/>
-      <c r="AL4" s="37" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="39" t="n"/>
-      <c r="E5" s="39" t="n"/>
-      <c r="F5" s="39" t="n"/>
-      <c r="G5" s="39" t="n"/>
-      <c r="H5" s="39" t="n"/>
-      <c r="I5" s="39" t="n"/>
-      <c r="J5" s="39" t="n"/>
-      <c r="K5" s="39" t="n"/>
-      <c r="L5" s="39" t="n"/>
-      <c r="M5" s="39" t="n"/>
-      <c r="N5" s="39" t="n"/>
-      <c r="O5" s="39" t="n"/>
-      <c r="P5" s="39" t="n"/>
-      <c r="Q5" s="39" t="n"/>
-      <c r="R5" s="39" t="n"/>
-      <c r="S5" s="39" t="n"/>
-      <c r="T5" s="39" t="n"/>
-      <c r="U5" s="39" t="n"/>
-      <c r="V5" s="39" t="n"/>
-      <c r="W5" s="39" t="n"/>
-      <c r="X5" s="39" t="n"/>
-      <c r="Y5" s="39" t="n"/>
-      <c r="Z5" s="39" t="n"/>
-      <c r="AA5" s="39" t="n"/>
-      <c r="AB5" s="39" t="n"/>
-      <c r="AC5" s="39" t="n"/>
-      <c r="AD5" s="39" t="n"/>
-      <c r="AE5" s="39" t="n"/>
-      <c r="AF5" s="39" t="n"/>
-      <c r="AG5" s="39" t="n"/>
-      <c r="AH5" s="39" t="n"/>
-      <c r="AI5" s="39" t="n"/>
-      <c r="AJ5" s="39" t="n"/>
-      <c r="AK5" s="39" t="n"/>
-      <c r="AL5" s="37" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="37" t="n"/>
-      <c r="C6" s="38" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="39" t="n"/>
-      <c r="E6" s="39" t="n"/>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
-      <c r="J6" s="39" t="n"/>
-      <c r="K6" s="39" t="n"/>
-      <c r="L6" s="39" t="n"/>
-      <c r="M6" s="39" t="n"/>
-      <c r="N6" s="39" t="n"/>
-      <c r="O6" s="39" t="n"/>
-      <c r="P6" s="39" t="n"/>
-      <c r="Q6" s="39" t="n"/>
-      <c r="R6" s="39" t="n"/>
-      <c r="S6" s="39" t="n"/>
-      <c r="T6" s="39" t="n"/>
-      <c r="U6" s="39" t="n"/>
-      <c r="V6" s="39" t="n"/>
-      <c r="W6" s="39" t="n"/>
-      <c r="X6" s="39" t="n"/>
-      <c r="Y6" s="39" t="n"/>
-      <c r="Z6" s="39" t="n"/>
-      <c r="AA6" s="39" t="n"/>
-      <c r="AB6" s="39" t="n"/>
-      <c r="AC6" s="39" t="n"/>
-      <c r="AD6" s="39" t="n"/>
-      <c r="AE6" s="39" t="n"/>
-      <c r="AF6" s="39" t="n"/>
-      <c r="AG6" s="39" t="n"/>
-      <c r="AH6" s="39" t="n"/>
-      <c r="AI6" s="39" t="n"/>
-      <c r="AJ6" s="39" t="n"/>
-      <c r="AK6" s="39" t="n"/>
-      <c r="AL6" s="37" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="37" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2034,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2060,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="43" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n"/>
-      <c r="C3" s="44" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="39" t="n"/>
-      <c r="E3" s="39" t="n"/>
-      <c r="F3" s="39" t="n"/>
-      <c r="G3" s="39" t="n"/>
-      <c r="H3" s="39" t="n"/>
-      <c r="I3" s="39" t="n"/>
-      <c r="J3" s="39" t="n"/>
-      <c r="K3" s="39" t="n"/>
-      <c r="L3" s="39" t="n"/>
-      <c r="M3" s="39" t="n"/>
-      <c r="N3" s="37" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="37" t="n"/>
-      <c r="C4" s="45" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="37" t="n"/>
-      <c r="E4" s="45" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="37" t="n"/>
-      <c r="G4" s="45" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="37" t="n"/>
-      <c r="I4" s="45" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="37" t="n"/>
-      <c r="K4" s="45" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="37" t="n"/>
-      <c r="M4" s="45" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="37" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="42" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3442,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921443000</v>
+        <v>187940000</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>1210236000</v>
+        <v>26092000</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>27927271.19831815</v>
+        <v>702541000</v>
       </c>
       <c r="E2" t="n">
-        <v>102308728.8016818</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2744982000</v>
+        <v>2649640000</v>
       </c>
       <c r="G2" t="n">
-        <v>1074938000</v>
+        <v>730083000</v>
       </c>
       <c r="H2" t="n">
-        <v>84441000</v>
+        <v>39249000</v>
       </c>
       <c r="I2" t="n">
-        <v>471541000</v>
+        <v>341194000</v>
       </c>
       <c r="J2" t="n">
-        <v>832736000</v>
+        <v>600286000</v>
       </c>
       <c r="K2" t="n">
         <v>2381273000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>4014453243.099613</v>
+        <v>2690351000</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>80123756.90038726</v>
+        <v>35347000</v>
       </c>
       <c r="N2" t="n">
-        <v>281162000</v>
+        <v>221966000</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>103088199.0950226</v>
+        <v>58786000</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>292947800.9049774</v>
+        <v>155555000</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>202029364.1322878</v>
+        <v>128257000</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>196995635.8677122</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1360424000</v>
+        <v>988139000</v>
       </c>
       <c r="T2" t="n">
-        <v>249244000</v>
+        <v>65162000</v>
       </c>
       <c r="U2" t="n">
-        <v>118419000</v>
+        <v>86917000</v>
       </c>
       <c r="V2" t="n">
-        <v>1138044000</v>
+        <v>546866000</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>46081000</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>367812000</v>
       </c>
       <c r="Y2" t="n">
-        <v>289480000</v>
+        <v>213797000</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>940521891.8343825</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>74362547.74359429</v>
+        <v>22896283.35845376</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>143589560.4220232</v>
+        <v>760575336.9979608</v>
       </c>
       <c r="AC2" t="n">
-        <v>11217671000</v>
+        <v>8551203000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13795789000</v>
+        <v>4388632000</v>
       </c>
       <c r="AE2" t="n">
         <v>6095746000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5404281000</v>
+        <v>4067250000</v>
       </c>
       <c r="AG2" t="n">
-        <v>588703000</v>
+        <v>1124796000</v>
       </c>
       <c r="AH2" t="n">
         <v>894241000</v>
@@ -3777,25 +3777,25 @@
         <v>5234044000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1894515000</v>
+        <v>1507516000</v>
       </c>
       <c r="AL2" t="n">
-        <v>19244893000</v>
+        <v>8710725000</v>
       </c>
       <c r="AM2" t="n">
-        <v>25241781000</v>
+        <v>481314751000</v>
       </c>
       <c r="AN2" t="n">
-        <v>2204024000</v>
+        <v>1665948000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15540447000</v>
+        <v>13376902000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1454556000</v>
+        <v>876425000</v>
       </c>
       <c r="AQ2" t="n">
-        <v>306550000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,76 +3672,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187940000</v>
+        <v>133092453.6921212</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>26092000</v>
+        <v>18477430.57217636</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>702541000</v>
+        <v>497514661.6436975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2649640000</v>
+        <v>1876381233.376567</v>
       </c>
       <c r="G2" t="n">
-        <v>730083000</v>
+        <v>517018930.8763697</v>
       </c>
       <c r="H2" t="n">
-        <v>39249000</v>
+        <v>27794752.12813698</v>
       </c>
       <c r="I2" t="n">
-        <v>341194000</v>
+        <v>241621510.2959966</v>
       </c>
       <c r="J2" t="n">
-        <v>600286000</v>
+        <v>425101291.1409421</v>
       </c>
       <c r="K2" t="n">
         <v>2381273000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>2690351000</v>
+        <v>1905211322.140321</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>35347000</v>
+        <v>25031493.88451318</v>
       </c>
       <c r="N2" t="n">
-        <v>221966000</v>
+        <v>157188462.1486931</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>58786000</v>
+        <v>41630163.790279</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>155555000</v>
+        <v>110158543.3333932</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>128257000</v>
+        <v>90827066.2615217</v>
       </c>
       <c r="R2" s="33" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>988139000</v>
+        <v>699765053.2025058</v>
       </c>
       <c r="T2" t="n">
-        <v>65162000</v>
+        <v>46145421.23808663</v>
       </c>
       <c r="U2" t="n">
-        <v>86917000</v>
+        <v>61551541.96849046</v>
       </c>
       <c r="V2" t="n">
-        <v>546866000</v>
+        <v>387271138.5590909</v>
       </c>
       <c r="W2" t="n">
-        <v>46081000</v>
+        <v>32632932.63055569</v>
       </c>
       <c r="X2" t="n">
-        <v>367812000</v>
+        <v>260471435.4443252</v>
       </c>
       <c r="Y2" t="n">
-        <v>213797000</v>
+        <v>151403465.5848379</v>
       </c>
       <c r="Z2" s="32" t="n">
         <v>940521891.8343825</v>
@@ -3753,19 +3753,19 @@
         <v>760575336.9979608</v>
       </c>
       <c r="AC2" t="n">
-        <v>8551203000</v>
+        <v>6055659195.963753</v>
       </c>
       <c r="AD2" t="n">
-        <v>4388632000</v>
+        <v>3107873796.061302</v>
       </c>
       <c r="AE2" t="n">
         <v>6095746000</v>
       </c>
       <c r="AF2" t="n">
-        <v>4067250000</v>
+        <v>2880282442.690645</v>
       </c>
       <c r="AG2" t="n">
-        <v>1124796000</v>
+        <v>796540702.0489686</v>
       </c>
       <c r="AH2" t="n">
         <v>894241000</v>
@@ -3777,22 +3777,22 @@
         <v>5234044000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1507516000</v>
+        <v>1067569455.252377</v>
       </c>
       <c r="AL2" t="n">
-        <v>8710725000</v>
+        <v>6168627028.239344</v>
       </c>
       <c r="AM2" t="n">
-        <v>481314751000</v>
+        <v>70044912000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1665948000</v>
+        <v>1179765388.121113</v>
       </c>
       <c r="AO2" t="n">
-        <v>13376902000</v>
+        <v>9473048366.388439</v>
       </c>
       <c r="AP2" t="n">
-        <v>876425000</v>
+        <v>620653153.8103507</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3672,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133092453.6921212</v>
+        <v>79323799.85092574</v>
       </c>
       <c r="C2" s="32" t="n">
-        <v>18477430.57217636</v>
+        <v>11012645.44913459</v>
       </c>
       <c r="D2" s="33" t="n">
-        <v>497514661.6436975</v>
+        <v>296521345.48829</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1876381233.376567</v>
+        <v>1118333047.978115</v>
       </c>
       <c r="G2" t="n">
-        <v>517018930.8763697</v>
+        <v>308145992.1600693</v>
       </c>
       <c r="H2" t="n">
-        <v>27794752.12813698</v>
+        <v>16565817.92246986</v>
       </c>
       <c r="I2" t="n">
-        <v>241621510.2959966</v>
+        <v>144007686.3165732</v>
       </c>
       <c r="J2" t="n">
-        <v>425101291.1409421</v>
+        <v>253362597.197578</v>
       </c>
       <c r="K2" t="n">
         <v>2381273000</v>
       </c>
       <c r="L2" s="32" t="n">
-        <v>1905211322.140321</v>
+        <v>1135515931.960934</v>
       </c>
       <c r="M2" s="33" t="n">
-        <v>25031493.88451318</v>
+        <v>14918901.52884257</v>
       </c>
       <c r="N2" t="n">
-        <v>157188462.1486931</v>
+        <v>93685147.16244857</v>
       </c>
       <c r="O2" s="32" t="n">
-        <v>41630163.790279</v>
+        <v>24811795.77544174</v>
       </c>
       <c r="P2" s="33" t="n">
-        <v>110158543.3333932</v>
+        <v>65655069.09551322</v>
       </c>
       <c r="Q2" s="32" t="n">
-        <v>90827066.2615217</v>
+        <v>54133407.45706175</v>
       </c>
       <c r="R2" s="33" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>699765053.2025058</v>
+        <v>417063638.7192398</v>
       </c>
       <c r="T2" t="n">
-        <v>46145421.23808663</v>
+        <v>27502912.87584348</v>
       </c>
       <c r="U2" t="n">
-        <v>61551541.96849046</v>
+        <v>36685041.56455737</v>
       </c>
       <c r="V2" t="n">
-        <v>387271138.5590909</v>
+        <v>230815628.0157304</v>
       </c>
       <c r="W2" t="n">
-        <v>32632932.63055569</v>
+        <v>19449398.85564813</v>
       </c>
       <c r="X2" t="n">
-        <v>260471435.4443252</v>
+        <v>155242340.4850947</v>
       </c>
       <c r="Y2" t="n">
-        <v>151403465.5848379</v>
+        <v>90237258.89501102</v>
       </c>
       <c r="Z2" s="32" t="n">
-        <v>940521891.8343825</v>
+        <v>755781306.4975775</v>
       </c>
       <c r="AA2" s="35" t="n">
-        <v>22896283.35845376</v>
+        <v>375769684.3117697</v>
       </c>
       <c r="AB2" s="33" t="n">
-        <v>760575336.9979608</v>
+        <v>611180480.6212597</v>
       </c>
       <c r="AC2" t="n">
-        <v>6055659195.963753</v>
+        <v>3609204614.539937</v>
       </c>
       <c r="AD2" t="n">
-        <v>3107873796.061302</v>
+        <v>1852309068.784548</v>
       </c>
       <c r="AE2" t="n">
         <v>6095746000</v>
       </c>
       <c r="AF2" t="n">
-        <v>2880282442.690645</v>
+        <v>1716663429.518345</v>
       </c>
       <c r="AG2" t="n">
-        <v>796540702.0489686</v>
+        <v>474742432.5695535</v>
       </c>
       <c r="AH2" t="n">
         <v>894241000</v>
@@ -3777,22 +3777,22 @@
         <v>5234044000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1067569455.252377</v>
+        <v>636276989.7630531</v>
       </c>
       <c r="AL2" t="n">
-        <v>6168627028.239344</v>
+        <v>3676534034.566645</v>
       </c>
       <c r="AM2" t="n">
         <v>70044912000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1179765388.121113</v>
+        <v>2204024000</v>
       </c>
       <c r="AO2" t="n">
-        <v>9473048366.388439</v>
+        <v>15540447000</v>
       </c>
       <c r="AP2" t="n">
-        <v>620653153.8103507</v>
+        <v>369912532.1078408</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>

--- a/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
+++ b/InputData/io-model/BECbIC/BAU Employee Compensation by ISIC Code.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-32440" yWindow="6020" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="720" yWindow="720" windowWidth="14400" windowHeight="6920" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,9 +11,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OECD Chem Pharma Split" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BECbIC" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-  </externalReferences>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -305,7 +302,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -380,6 +377,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -406,18 +416,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,6 +423,74 @@
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,174 +732,6 @@
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="OECD EMPN"/>
-      <sheetName val="Filtered OECD Data"/>
-      <sheetName val="U.S. Data for ISIC Splits"/>
-      <sheetName val="BEbIC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="38">
-          <cell r="B38">
-            <v>2253</v>
-          </cell>
-          <cell r="C38">
-            <v>262.60000000000002</v>
-          </cell>
-          <cell r="D38">
-            <v>135.4</v>
-          </cell>
-          <cell r="E38">
-            <v>373</v>
-          </cell>
-          <cell r="F38">
-            <v>1783</v>
-          </cell>
-          <cell r="G38">
-            <v>442</v>
-          </cell>
-          <cell r="H38">
-            <v>399</v>
-          </cell>
-          <cell r="I38">
-            <v>842</v>
-          </cell>
-          <cell r="J38">
-            <v>111</v>
-          </cell>
-          <cell r="K38">
-            <v>820</v>
-          </cell>
-          <cell r="L38">
-            <v>690</v>
-          </cell>
-          <cell r="M38">
-            <v>412</v>
-          </cell>
-          <cell r="N38">
-            <v>395</v>
-          </cell>
-          <cell r="O38">
-            <v>1483</v>
-          </cell>
-          <cell r="P38">
-            <v>1058</v>
-          </cell>
-          <cell r="Q38">
-            <v>382</v>
-          </cell>
-          <cell r="R38">
-            <v>1126</v>
-          </cell>
-          <cell r="S38">
-            <v>922</v>
-          </cell>
-          <cell r="T38">
-            <v>695</v>
-          </cell>
-          <cell r="U38">
-            <v>1355.5</v>
-          </cell>
-          <cell r="V38">
-            <v>975</v>
-          </cell>
-          <cell r="W38">
-            <v>8240</v>
-          </cell>
-          <cell r="X38">
-            <v>23893.3</v>
-          </cell>
-          <cell r="Y38">
-            <v>5988</v>
-          </cell>
-          <cell r="Z38">
-            <v>13295</v>
-          </cell>
-          <cell r="AA38">
-            <v>1686.9</v>
-          </cell>
-          <cell r="AB38">
-            <v>823.1</v>
-          </cell>
-          <cell r="AC38">
-            <v>2455</v>
-          </cell>
-          <cell r="AD38">
-            <v>6300</v>
-          </cell>
-          <cell r="AE38">
-            <v>1958</v>
-          </cell>
-          <cell r="AF38">
-            <v>19863</v>
-          </cell>
-          <cell r="AG38">
-            <v>13365</v>
-          </cell>
-          <cell r="AH38">
-            <v>14114</v>
-          </cell>
-          <cell r="AI38">
-            <v>19522</v>
-          </cell>
-          <cell r="AJ38">
-            <v>8780.2000000000007</v>
-          </cell>
-          <cell r="AK38">
-            <v>329.1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="6">
-          <cell r="D6">
-            <v>64800</v>
-          </cell>
-          <cell r="E6">
-            <v>185400</v>
-          </cell>
-          <cell r="G6">
-            <v>531100</v>
-          </cell>
-          <cell r="H6">
-            <v>284200</v>
-          </cell>
-          <cell r="J6">
-            <v>93600</v>
-          </cell>
-          <cell r="K6">
-            <v>310900</v>
-          </cell>
-          <cell r="M6">
-            <v>209500</v>
-          </cell>
-          <cell r="N6">
-            <v>182400</v>
-          </cell>
-          <cell r="P6">
-            <v>397500</v>
-          </cell>
-          <cell r="Q6">
-            <v>119700</v>
-          </cell>
-          <cell r="R6">
-            <v>50300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1103,13 +1001,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="77.5" customWidth="1" min="2" max="2"/>
   </cols>
@@ -1119,6 +1017,9 @@
         <is>
           <t>BECbIC BAU Employee Compensation by ISIC Code</t>
         </is>
+      </c>
+      <c r="C1" s="36" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -1287,19 +1188,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col width="27.5" customWidth="1" style="6" min="1" max="1"/>
     <col width="2.5" customWidth="1" style="6" min="2" max="2"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="3" max="24"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="25" max="25"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="26" max="31"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="32" max="34"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="35" max="35"/>
     <col width="9.5" bestFit="1" customWidth="1" style="6" min="36" max="36"/>
-    <col width="9.33203125" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
-    <col width="9.1640625" customWidth="1" style="6" min="39" max="41"/>
-    <col width="9.1640625" customWidth="1" style="6" min="42" max="16384"/>
+    <col width="9.31640625" bestFit="1" customWidth="1" style="6" min="37" max="38"/>
+    <col width="9.1796875" customWidth="1" style="6" min="39" max="42"/>
+    <col width="9.1796875" customWidth="1" style="6" min="43" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -1321,204 +1222,204 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="42" t="inlineStr">
         <is>
           <t>VAL: Value added</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="33" t="n"/>
-      <c r="O3" s="33" t="n"/>
-      <c r="P3" s="33" t="n"/>
-      <c r="Q3" s="33" t="n"/>
-      <c r="R3" s="33" t="n"/>
-      <c r="S3" s="33" t="n"/>
-      <c r="T3" s="33" t="n"/>
-      <c r="U3" s="33" t="n"/>
-      <c r="V3" s="33" t="n"/>
-      <c r="W3" s="33" t="n"/>
-      <c r="X3" s="33" t="n"/>
-      <c r="Y3" s="33" t="n"/>
-      <c r="Z3" s="33" t="n"/>
-      <c r="AA3" s="33" t="n"/>
-      <c r="AB3" s="33" t="n"/>
-      <c r="AC3" s="33" t="n"/>
-      <c r="AD3" s="33" t="n"/>
-      <c r="AE3" s="33" t="n"/>
-      <c r="AF3" s="33" t="n"/>
-      <c r="AG3" s="33" t="n"/>
-      <c r="AH3" s="33" t="n"/>
-      <c r="AI3" s="33" t="n"/>
-      <c r="AJ3" s="33" t="n"/>
-      <c r="AK3" s="33" t="n"/>
-      <c r="AL3" s="31" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="40" t="n"/>
+      <c r="O3" s="40" t="n"/>
+      <c r="P3" s="40" t="n"/>
+      <c r="Q3" s="40" t="n"/>
+      <c r="R3" s="40" t="n"/>
+      <c r="S3" s="40" t="n"/>
+      <c r="T3" s="40" t="n"/>
+      <c r="U3" s="40" t="n"/>
+      <c r="V3" s="40" t="n"/>
+      <c r="W3" s="40" t="n"/>
+      <c r="X3" s="40" t="n"/>
+      <c r="Y3" s="40" t="n"/>
+      <c r="Z3" s="40" t="n"/>
+      <c r="AA3" s="40" t="n"/>
+      <c r="AB3" s="40" t="n"/>
+      <c r="AC3" s="40" t="n"/>
+      <c r="AD3" s="40" t="n"/>
+      <c r="AE3" s="40" t="n"/>
+      <c r="AF3" s="40" t="n"/>
+      <c r="AG3" s="40" t="n"/>
+      <c r="AH3" s="40" t="n"/>
+      <c r="AI3" s="40" t="n"/>
+      <c r="AJ3" s="40" t="n"/>
+      <c r="AK3" s="40" t="n"/>
+      <c r="AL3" s="38" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
+      <c r="A4" s="37" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="32" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>USA: United States</t>
         </is>
       </c>
-      <c r="D4" s="33" t="n"/>
-      <c r="E4" s="33" t="n"/>
-      <c r="F4" s="33" t="n"/>
-      <c r="G4" s="33" t="n"/>
-      <c r="H4" s="33" t="n"/>
-      <c r="I4" s="33" t="n"/>
-      <c r="J4" s="33" t="n"/>
-      <c r="K4" s="33" t="n"/>
-      <c r="L4" s="33" t="n"/>
-      <c r="M4" s="33" t="n"/>
-      <c r="N4" s="33" t="n"/>
-      <c r="O4" s="33" t="n"/>
-      <c r="P4" s="33" t="n"/>
-      <c r="Q4" s="33" t="n"/>
-      <c r="R4" s="33" t="n"/>
-      <c r="S4" s="33" t="n"/>
-      <c r="T4" s="33" t="n"/>
-      <c r="U4" s="33" t="n"/>
-      <c r="V4" s="33" t="n"/>
-      <c r="W4" s="33" t="n"/>
-      <c r="X4" s="33" t="n"/>
-      <c r="Y4" s="33" t="n"/>
-      <c r="Z4" s="33" t="n"/>
-      <c r="AA4" s="33" t="n"/>
-      <c r="AB4" s="33" t="n"/>
-      <c r="AC4" s="33" t="n"/>
-      <c r="AD4" s="33" t="n"/>
-      <c r="AE4" s="33" t="n"/>
-      <c r="AF4" s="33" t="n"/>
-      <c r="AG4" s="33" t="n"/>
-      <c r="AH4" s="33" t="n"/>
-      <c r="AI4" s="33" t="n"/>
-      <c r="AJ4" s="33" t="n"/>
-      <c r="AK4" s="33" t="n"/>
-      <c r="AL4" s="31" t="n"/>
+      <c r="D4" s="40" t="n"/>
+      <c r="E4" s="40" t="n"/>
+      <c r="F4" s="40" t="n"/>
+      <c r="G4" s="40" t="n"/>
+      <c r="H4" s="40" t="n"/>
+      <c r="I4" s="40" t="n"/>
+      <c r="J4" s="40" t="n"/>
+      <c r="K4" s="40" t="n"/>
+      <c r="L4" s="40" t="n"/>
+      <c r="M4" s="40" t="n"/>
+      <c r="N4" s="40" t="n"/>
+      <c r="O4" s="40" t="n"/>
+      <c r="P4" s="40" t="n"/>
+      <c r="Q4" s="40" t="n"/>
+      <c r="R4" s="40" t="n"/>
+      <c r="S4" s="40" t="n"/>
+      <c r="T4" s="40" t="n"/>
+      <c r="U4" s="40" t="n"/>
+      <c r="V4" s="40" t="n"/>
+      <c r="W4" s="40" t="n"/>
+      <c r="X4" s="40" t="n"/>
+      <c r="Y4" s="40" t="n"/>
+      <c r="Z4" s="40" t="n"/>
+      <c r="AA4" s="40" t="n"/>
+      <c r="AB4" s="40" t="n"/>
+      <c r="AC4" s="40" t="n"/>
+      <c r="AD4" s="40" t="n"/>
+      <c r="AE4" s="40" t="n"/>
+      <c r="AF4" s="40" t="n"/>
+      <c r="AG4" s="40" t="n"/>
+      <c r="AH4" s="40" t="n"/>
+      <c r="AI4" s="40" t="n"/>
+      <c r="AJ4" s="40" t="n"/>
+      <c r="AK4" s="40" t="n"/>
+      <c r="AL4" s="38" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="32" t="inlineStr">
+      <c r="B5" s="38" t="n"/>
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D5" s="33" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="33" t="n"/>
-      <c r="G5" s="33" t="n"/>
-      <c r="H5" s="33" t="n"/>
-      <c r="I5" s="33" t="n"/>
-      <c r="J5" s="33" t="n"/>
-      <c r="K5" s="33" t="n"/>
-      <c r="L5" s="33" t="n"/>
-      <c r="M5" s="33" t="n"/>
-      <c r="N5" s="33" t="n"/>
-      <c r="O5" s="33" t="n"/>
-      <c r="P5" s="33" t="n"/>
-      <c r="Q5" s="33" t="n"/>
-      <c r="R5" s="33" t="n"/>
-      <c r="S5" s="33" t="n"/>
-      <c r="T5" s="33" t="n"/>
-      <c r="U5" s="33" t="n"/>
-      <c r="V5" s="33" t="n"/>
-      <c r="W5" s="33" t="n"/>
-      <c r="X5" s="33" t="n"/>
-      <c r="Y5" s="33" t="n"/>
-      <c r="Z5" s="33" t="n"/>
-      <c r="AA5" s="33" t="n"/>
-      <c r="AB5" s="33" t="n"/>
-      <c r="AC5" s="33" t="n"/>
-      <c r="AD5" s="33" t="n"/>
-      <c r="AE5" s="33" t="n"/>
-      <c r="AF5" s="33" t="n"/>
-      <c r="AG5" s="33" t="n"/>
-      <c r="AH5" s="33" t="n"/>
-      <c r="AI5" s="33" t="n"/>
-      <c r="AJ5" s="33" t="n"/>
-      <c r="AK5" s="33" t="n"/>
-      <c r="AL5" s="31" t="n"/>
+      <c r="D5" s="40" t="n"/>
+      <c r="E5" s="40" t="n"/>
+      <c r="F5" s="40" t="n"/>
+      <c r="G5" s="40" t="n"/>
+      <c r="H5" s="40" t="n"/>
+      <c r="I5" s="40" t="n"/>
+      <c r="J5" s="40" t="n"/>
+      <c r="K5" s="40" t="n"/>
+      <c r="L5" s="40" t="n"/>
+      <c r="M5" s="40" t="n"/>
+      <c r="N5" s="40" t="n"/>
+      <c r="O5" s="40" t="n"/>
+      <c r="P5" s="40" t="n"/>
+      <c r="Q5" s="40" t="n"/>
+      <c r="R5" s="40" t="n"/>
+      <c r="S5" s="40" t="n"/>
+      <c r="T5" s="40" t="n"/>
+      <c r="U5" s="40" t="n"/>
+      <c r="V5" s="40" t="n"/>
+      <c r="W5" s="40" t="n"/>
+      <c r="X5" s="40" t="n"/>
+      <c r="Y5" s="40" t="n"/>
+      <c r="Z5" s="40" t="n"/>
+      <c r="AA5" s="40" t="n"/>
+      <c r="AB5" s="40" t="n"/>
+      <c r="AC5" s="40" t="n"/>
+      <c r="AD5" s="40" t="n"/>
+      <c r="AE5" s="40" t="n"/>
+      <c r="AF5" s="40" t="n"/>
+      <c r="AG5" s="40" t="n"/>
+      <c r="AH5" s="40" t="n"/>
+      <c r="AI5" s="40" t="n"/>
+      <c r="AJ5" s="40" t="n"/>
+      <c r="AK5" s="40" t="n"/>
+      <c r="AL5" s="38" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="37" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="B6" s="31" t="n"/>
-      <c r="C6" s="32" t="inlineStr">
+      <c r="B6" s="38" t="n"/>
+      <c r="C6" s="39" t="inlineStr">
         <is>
           <t>US Dollar, Millions</t>
         </is>
       </c>
-      <c r="D6" s="33" t="n"/>
-      <c r="E6" s="33" t="n"/>
-      <c r="F6" s="33" t="n"/>
-      <c r="G6" s="33" t="n"/>
-      <c r="H6" s="33" t="n"/>
-      <c r="I6" s="33" t="n"/>
-      <c r="J6" s="33" t="n"/>
-      <c r="K6" s="33" t="n"/>
-      <c r="L6" s="33" t="n"/>
-      <c r="M6" s="33" t="n"/>
-      <c r="N6" s="33" t="n"/>
-      <c r="O6" s="33" t="n"/>
-      <c r="P6" s="33" t="n"/>
-      <c r="Q6" s="33" t="n"/>
-      <c r="R6" s="33" t="n"/>
-      <c r="S6" s="33" t="n"/>
-      <c r="T6" s="33" t="n"/>
-      <c r="U6" s="33" t="n"/>
-      <c r="V6" s="33" t="n"/>
-      <c r="W6" s="33" t="n"/>
-      <c r="X6" s="33" t="n"/>
-      <c r="Y6" s="33" t="n"/>
-      <c r="Z6" s="33" t="n"/>
-      <c r="AA6" s="33" t="n"/>
-      <c r="AB6" s="33" t="n"/>
-      <c r="AC6" s="33" t="n"/>
-      <c r="AD6" s="33" t="n"/>
-      <c r="AE6" s="33" t="n"/>
-      <c r="AF6" s="33" t="n"/>
-      <c r="AG6" s="33" t="n"/>
-      <c r="AH6" s="33" t="n"/>
-      <c r="AI6" s="33" t="n"/>
-      <c r="AJ6" s="33" t="n"/>
-      <c r="AK6" s="33" t="n"/>
-      <c r="AL6" s="31" t="n"/>
+      <c r="D6" s="40" t="n"/>
+      <c r="E6" s="40" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
+      <c r="J6" s="40" t="n"/>
+      <c r="K6" s="40" t="n"/>
+      <c r="L6" s="40" t="n"/>
+      <c r="M6" s="40" t="n"/>
+      <c r="N6" s="40" t="n"/>
+      <c r="O6" s="40" t="n"/>
+      <c r="P6" s="40" t="n"/>
+      <c r="Q6" s="40" t="n"/>
+      <c r="R6" s="40" t="n"/>
+      <c r="S6" s="40" t="n"/>
+      <c r="T6" s="40" t="n"/>
+      <c r="U6" s="40" t="n"/>
+      <c r="V6" s="40" t="n"/>
+      <c r="W6" s="40" t="n"/>
+      <c r="X6" s="40" t="n"/>
+      <c r="Y6" s="40" t="n"/>
+      <c r="Z6" s="40" t="n"/>
+      <c r="AA6" s="40" t="n"/>
+      <c r="AB6" s="40" t="n"/>
+      <c r="AC6" s="40" t="n"/>
+      <c r="AD6" s="40" t="n"/>
+      <c r="AE6" s="40" t="n"/>
+      <c r="AF6" s="40" t="n"/>
+      <c r="AG6" s="40" t="n"/>
+      <c r="AH6" s="40" t="n"/>
+      <c r="AI6" s="40" t="n"/>
+      <c r="AJ6" s="40" t="n"/>
+      <c r="AK6" s="40" t="n"/>
+      <c r="AL6" s="38" t="n"/>
     </row>
     <row r="7" ht="120" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="41" t="inlineStr">
         <is>
           <t>To: (sector in column)</t>
         </is>
       </c>
-      <c r="B7" s="31" t="n"/>
+      <c r="B7" s="38" t="n"/>
       <c r="C7" s="8" t="inlineStr">
         <is>
           <t>D01T03: Agriculture, forestry and fishing</t>
@@ -2133,11 +2034,11 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
     <col width="27.5" customWidth="1" min="1" max="1"/>
     <col width="2.5" customWidth="1" min="2" max="2"/>
-    <col width="14.1640625" customWidth="1" min="3" max="14"/>
+    <col width="14.1796875" customWidth="1" min="3" max="14"/>
   </cols>
   <sheetData>
     <row r="1" hidden="1">
@@ -2159,80 +2060,80 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="44" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="B3" s="31" t="n"/>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="B3" s="38" t="n"/>
+      <c r="C3" s="45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D3" s="33" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="33" t="n"/>
-      <c r="G3" s="33" t="n"/>
-      <c r="H3" s="33" t="n"/>
-      <c r="I3" s="33" t="n"/>
-      <c r="J3" s="33" t="n"/>
-      <c r="K3" s="33" t="n"/>
-      <c r="L3" s="33" t="n"/>
-      <c r="M3" s="33" t="n"/>
-      <c r="N3" s="31" t="n"/>
+      <c r="D3" s="40" t="n"/>
+      <c r="E3" s="40" t="n"/>
+      <c r="F3" s="40" t="n"/>
+      <c r="G3" s="40" t="n"/>
+      <c r="H3" s="40" t="n"/>
+      <c r="I3" s="40" t="n"/>
+      <c r="J3" s="40" t="n"/>
+      <c r="K3" s="40" t="n"/>
+      <c r="L3" s="40" t="n"/>
+      <c r="M3" s="40" t="n"/>
+      <c r="N3" s="38" t="n"/>
     </row>
     <row r="4" ht="24" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="43" t="inlineStr">
         <is>
           <t>Variable</t>
         </is>
       </c>
-      <c r="B4" s="31" t="n"/>
-      <c r="C4" s="39" t="inlineStr">
+      <c r="B4" s="38" t="n"/>
+      <c r="C4" s="46" t="inlineStr">
         <is>
           <t>PROD: Production (gross output), current prices</t>
         </is>
       </c>
-      <c r="D4" s="31" t="n"/>
-      <c r="E4" s="39" t="inlineStr">
+      <c r="D4" s="38" t="n"/>
+      <c r="E4" s="46" t="inlineStr">
         <is>
           <t>VALU: Value added, current prices</t>
         </is>
       </c>
-      <c r="F4" s="31" t="n"/>
-      <c r="G4" s="39" t="inlineStr">
+      <c r="F4" s="38" t="n"/>
+      <c r="G4" s="46" t="inlineStr">
         <is>
           <t>LABR: Labour costs (compensation of employees)</t>
         </is>
       </c>
-      <c r="H4" s="31" t="n"/>
-      <c r="I4" s="39" t="inlineStr">
+      <c r="H4" s="38" t="n"/>
+      <c r="I4" s="46" t="inlineStr">
         <is>
           <t>GOPS: Gross operating surplus and mixed income</t>
         </is>
       </c>
-      <c r="J4" s="31" t="n"/>
-      <c r="K4" s="39" t="inlineStr">
+      <c r="J4" s="38" t="n"/>
+      <c r="K4" s="46" t="inlineStr">
         <is>
           <t>OTXS: Other taxes less subsidies on production</t>
         </is>
       </c>
-      <c r="L4" s="31" t="n"/>
-      <c r="M4" s="39" t="inlineStr">
+      <c r="L4" s="38" t="n"/>
+      <c r="M4" s="46" t="inlineStr">
         <is>
           <t>EMPN: Number of persons engaged (total employment)</t>
         </is>
       </c>
-      <c r="N4" s="31" t="n"/>
+      <c r="N4" s="38" t="n"/>
     </row>
     <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="36" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="B5" s="31" t="n"/>
+      <c r="B5" s="38" t="n"/>
       <c r="C5" s="19" t="inlineStr">
         <is>
           <t>D20: Chemicals and chemical products [CE]</t>
@@ -3541,10 +3442,10 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.81640625" defaultRowHeight="14.75"/>
   <cols>
-    <col width="24.83203125" customWidth="1" min="1" max="1"/>
-    <col width="10.1640625" customWidth="1" min="2" max="39"/>
+    <col width="24.81640625" customWidth="1" min="1" max="1"/>
+    <col width="10.1796875" customWidth="1" min="2" max="39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="4">
@@ -3558,12 +3459,12 @@
           <t>ISIC 01T03</t>
         </is>
       </c>
-      <c r="C1" s="40" t="inlineStr">
+      <c r="C1" s="30" t="inlineStr">
         <is>
           <t>ISIC 05</t>
         </is>
       </c>
-      <c r="D1" s="41" t="inlineStr">
+      <c r="D1" s="31" t="inlineStr">
         <is>
           <t>ISIC 06</t>
         </is>
@@ -3603,12 +3504,12 @@
           <t>ISIC 19</t>
         </is>
       </c>
-      <c r="L1" s="40" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>ISIC 20</t>
         </is>
       </c>
-      <c r="M1" s="41" t="inlineStr">
+      <c r="M1" s="31" t="inlineStr">
         <is>
           <t>ISIC 21</t>
         </is>
@@ -3618,22 +3519,22 @@
           <t>ISIC 22</t>
         </is>
       </c>
-      <c r="O1" s="40" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>ISIC 231</t>
         </is>
       </c>
-      <c r="P1" s="41" t="inlineStr">
+      <c r="P1" s="31" t="inlineStr">
         <is>
           <t>ISIC 239</t>
         </is>
       </c>
-      <c r="Q1" s="40" t="inlineStr">
+      <c r="Q1" s="30" t="inlineStr">
         <is>
           <t>ISIC 241</t>
         </is>
       </c>
-      <c r="R1" s="41" t="inlineStr">
+      <c r="R1" s="31" t="inlineStr">
         <is>
           <t>ISIC 242</t>
         </is>
@@ -3673,17 +3574,17 @@
           <t>ISIC 31T33</t>
         </is>
       </c>
-      <c r="Z1" s="40" t="inlineStr">
+      <c r="Z1" s="30" t="inlineStr">
         <is>
           <t>ISIC 351</t>
         </is>
       </c>
-      <c r="AA1" s="44" t="inlineStr">
+      <c r="AA1" s="34" t="inlineStr">
         <is>
           <t>ISIC 352T353</t>
         </is>
       </c>
-      <c r="AB1" s="41" t="inlineStr">
+      <c r="AB1" s="31" t="inlineStr">
         <is>
           <t>ISIC 36T39</t>
         </is>
@@ -3771,100 +3672,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104372433000</v>
-      </c>
-      <c r="C2" s="42" t="n">
-        <v>1210236000</v>
-      </c>
-      <c r="D2" s="43" t="n">
-        <v>27927271.19831815</v>
+        <v>79323799.85092574</v>
+      </c>
+      <c r="C2" s="32" t="n">
+        <v>11012645.44913459</v>
+      </c>
+      <c r="D2" s="33" t="n">
+        <v>296521345.48829</v>
       </c>
       <c r="E2" t="n">
-        <v>102308728.8016818</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2744982000</v>
+        <v>1118333047.978115</v>
       </c>
       <c r="G2" t="n">
-        <v>1074938000</v>
+        <v>308145992.1600693</v>
       </c>
       <c r="H2" t="n">
-        <v>84441000</v>
+        <v>16565817.92246986</v>
       </c>
       <c r="I2" t="n">
-        <v>471541000</v>
+        <v>144007686.3165732</v>
       </c>
       <c r="J2" t="n">
-        <v>832736000</v>
+        <v>253362597.197578</v>
       </c>
       <c r="K2" t="n">
         <v>2381273000</v>
       </c>
-      <c r="L2" s="42" t="n">
-        <v>4014453243.099613</v>
-      </c>
-      <c r="M2" s="43" t="n">
-        <v>80123756.90038726</v>
+      <c r="L2" s="32" t="n">
+        <v>1135515931.960934</v>
+      </c>
+      <c r="M2" s="33" t="n">
+        <v>14918901.52884257</v>
       </c>
       <c r="N2" t="n">
-        <v>281162000</v>
-      </c>
-      <c r="O2" s="42" t="n">
-        <v>103088199.0950226</v>
-      </c>
-      <c r="P2" s="43" t="n">
-        <v>292947800.9049774</v>
-      </c>
-      <c r="Q2" s="42" t="n">
-        <v>202029364.1322878</v>
-      </c>
-      <c r="R2" s="43" t="n">
-        <v>196995635.8677122</v>
+        <v>93685147.16244857</v>
+      </c>
+      <c r="O2" s="32" t="n">
+        <v>24811795.77544174</v>
+      </c>
+      <c r="P2" s="33" t="n">
+        <v>65655069.09551322</v>
+      </c>
+      <c r="Q2" s="32" t="n">
+        <v>54133407.45706175</v>
+      </c>
+      <c r="R2" s="33" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1360424000</v>
+        <v>417063638.7192398</v>
       </c>
       <c r="T2" t="n">
-        <v>249244000</v>
+        <v>27502912.87584348</v>
       </c>
       <c r="U2" t="n">
-        <v>118419000</v>
+        <v>36685041.56455737</v>
       </c>
       <c r="V2" t="n">
-        <v>1138044000</v>
+        <v>230815628.0157304</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>19449398.85564813</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>155242340.4850947</v>
       </c>
       <c r="Y2" t="n">
-        <v>289480000</v>
-      </c>
-      <c r="Z2" s="42" t="n">
-        <v>940521891.8343825</v>
-      </c>
-      <c r="AA2" s="45" t="n">
-        <v>74362547.74359429</v>
-      </c>
-      <c r="AB2" s="43" t="n">
-        <v>143589560.4220232</v>
+        <v>90237258.89501102</v>
+      </c>
+      <c r="Z2" s="32" t="n">
+        <v>755781306.4975775</v>
+      </c>
+      <c r="AA2" s="35" t="n">
+        <v>375769684.3117697</v>
+      </c>
+      <c r="AB2" s="33" t="n">
+        <v>611180480.6212597</v>
       </c>
       <c r="AC2" t="n">
-        <v>11217671000</v>
+        <v>3609204614.539937</v>
       </c>
       <c r="AD2" t="n">
-        <v>13795789000</v>
+        <v>1852309068.784548</v>
       </c>
       <c r="AE2" t="n">
         <v>6095746000</v>
       </c>
       <c r="AF2" t="n">
-        <v>5404281000</v>
+        <v>1716663429.518345</v>
       </c>
       <c r="AG2" t="n">
-        <v>588703000</v>
+        <v>474742432.5695535</v>
       </c>
       <c r="AH2" t="n">
         <v>894241000</v>
@@ -3876,13 +3777,13 @@
         <v>5234044000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1894515000</v>
+        <v>636276989.7630531</v>
       </c>
       <c r="AL2" t="n">
-        <v>19244893000</v>
+        <v>3676534034.566645</v>
       </c>
       <c r="AM2" t="n">
-        <v>25241781000</v>
+        <v>70044912000</v>
       </c>
       <c r="AN2" t="n">
         <v>2204024000</v>
@@ -3891,10 +3792,10 @@
         <v>15540447000</v>
       </c>
       <c r="AP2" t="n">
-        <v>1454556000</v>
+        <v>369912532.1078408</v>
       </c>
       <c r="AQ2" t="n">
-        <v>306550000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
